--- a/Designs/CDMR_DB_Design.xlsx
+++ b/Designs/CDMR_DB_Design.xlsx
@@ -194,7 +194,7 @@
     <t xml:space="preserve">Table: CDMR_ADJUSTMENTS</t>
   </si>
   <si>
-    <t xml:space="preserve">REASON_CODE</t>
+    <t xml:space="preserve">REASON_CODE_DESC</t>
   </si>
   <si>
     <t xml:space="preserve">Reason code</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">ID of the person who entered the comments</t>
   </si>
   <si>
-    <t xml:space="preserve">Table: CDMR_INVOICE_HEADER </t>
+    <t xml:space="preserve">Table: INVOICE_HEADER </t>
   </si>
   <si>
     <t xml:space="preserve">Invoice Line Number</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">Total Amount</t>
   </si>
   <si>
-    <t xml:space="preserve">Table: CDMR_INVOICE_DETAIL</t>
+    <t xml:space="preserve">Table: INVOICE_DETAIL</t>
   </si>
   <si>
     <t xml:space="preserve">QTY</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">Price for each item</t>
   </si>
   <si>
-    <t xml:space="preserve">Table: CDMR_CUSTOMER</t>
+    <t xml:space="preserve">Table: CUSTOMER</t>
   </si>
   <si>
     <t xml:space="preserve">ADDRESS_1</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">Approver network id</t>
   </si>
   <si>
-    <t xml:space="preserve">APPROVER_FIRST_NAME</t>
+    <t xml:space="preserve">APP_FIRST_NAME</t>
   </si>
   <si>
     <t xml:space="preserve">Approver First name</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">VARCHAR2(100 BYTE)</t>
   </si>
   <si>
-    <t xml:space="preserve">APPROVER_LAST_NAME</t>
+    <t xml:space="preserve">APP_LAST_NAME</t>
   </si>
   <si>
     <t xml:space="preserve">Approver Last name</t>
@@ -624,19 +624,19 @@
   </sheetPr>
   <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.64372469635628"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="101.441295546559"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="102.2995951417"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -788,7 +788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -800,7 +800,7 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
@@ -824,7 +824,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -836,7 +836,7 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
@@ -1088,6 +1088,9 @@
       </c>
       <c r="C31" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,7 +1387,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
         <v>34</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="6" t="n">
@@ -1829,18 +1832,18 @@
   <dimension ref="A2:G65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.92712550607287"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.82186234817814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1878,7 +1881,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>129</v>
       </c>
@@ -1886,12 +1889,10 @@
         <v>130</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5" t="n">
-        <v>20</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1947,7 +1948,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>129</v>
       </c>
@@ -1955,12 +1956,10 @@
         <v>130</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5" t="n">
-        <v>20</v>
-      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1980,7 +1979,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>5</v>

--- a/Designs/CDMR_DB_Design.xlsx
+++ b/Designs/CDMR_DB_Design.xlsx
@@ -625,7 +625,7 @@
   <dimension ref="A1:G65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Designs/CDMR_DB_Design.xlsx
+++ b/Designs/CDMR_DB_Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Transaction Schema" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="144">
   <si>
     <t xml:space="preserve">Table: REQUISITION</t>
   </si>
@@ -401,82 +401,58 @@
     <t xml:space="preserve">Phone</t>
   </si>
   <si>
+    <t xml:space="preserve">Table: TASK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TASK_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task ID (auto generated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table: TASK_ASSIGNMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
     <t xml:space="preserve">DATA TYPE</t>
   </si>
   <si>
-    <t xml:space="preserve">Table: CDMR_ROLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLE_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role Identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLE_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR2(256 BYTE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approver Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table: CDMR_APPROVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates the role of the approver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPROVER_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role Approver user id</t>
+    <t xml:space="preserve">Table: CDMR_USERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRST_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR2(100 BYTE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAST_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSWORD</t>
   </si>
   <si>
     <t xml:space="preserve">VARCHAR2(50 BYTE)</t>
   </si>
   <si>
-    <t xml:space="preserve">Approver network id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP_FIRST_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approver First name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR2(100 BYTE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP_LAST_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approver Last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table: CDMR_USERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIRST_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAST_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
+    <t xml:space="preserve">ROLE</t>
   </si>
 </sst>
 </file>
@@ -624,19 +600,19 @@
   </sheetPr>
   <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.64372469635628"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="102.2995951417"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="103.263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1810,6 +1786,101 @@
       </c>
       <c r="E81" s="0" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>99999</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>99999</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1832,18 +1903,18 @@
   <dimension ref="A2:G65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.82186234817814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.71255060728745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1852,10 +1923,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>23</v>
@@ -1871,204 +1942,89 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>133</v>
+      <c r="A3" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="n">
-        <v>256</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="B6" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>130</v>
+      <c r="A9" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
